--- a/notion_cles.xlsx
+++ b/notion_cles.xlsx
@@ -75,19 +75,19 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>0.000000</v>
+        <v>-8.000000</v>
       </c>
       <c r="B2" s="1">
-        <v>0.000000</v>
+        <v>-85.680222</v>
       </c>
       <c r="C2" s="1">
-        <v>0.000000</v>
+        <v>8.000000</v>
       </c>
       <c r="D2" s="1">
-        <v>0.000000</v>
+        <v>-102.680222</v>
       </c>
       <c r="E2" s="1">
-        <v>60000.000000</v>
+        <v>59992.000000</v>
       </c>
     </row>
   </sheetData>
